--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/15kontrbetBrokenGameURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/15kontrbetBrokenGameURLList.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>1 1423 ID=80455 Provider=NetEnt Name=Knight Rider cod=21 description={"status":400,"errors":[{"code":"error.launch.pre-authorization-call","message":"Error doing a Pre Authorization call"}]} ResponseObject=null</t>
+    <t>1 236 ID=80680 Provider=RedTiger Name=Athens MegaWays cod=21 description={"status":400,"errors":[{"code":"error.game.status.not-valid","message":"This game Athens MegaWays - 7576 is DISABLED"}]} ResponseObject=null</t>
   </si>
   <si>
-    <t>2 1428 ID=80391 Provider=NetEnt Name=Koi Princess™ cod=21 description={"status":400,"errors":[{"code":"error.launch.pre-authorization-call","message":"Error doing a Pre Authorization call"}]} ResponseObject=null</t>
+    <t>2 281 ID=82333 Provider=PlayTech Name=Banca Francesa cod=21 description={"status":400,"errors":[{"code":"error.game.status.not-valid","message":"This game Banca Francesa - 8002 is IN_MAINTENANCE"}]} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3 1418 ID=80455 Provider=NetEnt Name=Knight Rider cod=21 description={"status":400,"errors":[{"code":"error.launch.pre-authorization-call","message":"Error doing a Pre Authorization call"}]} ResponseObject=null</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,6 +84,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
